--- a/data/trans_camb/IP2002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 1,93</t>
+          <t>-1,32; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,24</t>
+          <t>-6,29; -0,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -3,29</t>
+          <t>-5,04; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 0,05</t>
+          <t>-2,48; 4,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,25</t>
+          <t>-2,16; 4,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -2,61</t>
+          <t>-1,99; 5,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,39</t>
+          <t>-1,0; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,79</t>
+          <t>-3,26; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -4,03</t>
+          <t>-2,31; 2,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,3%</t>
+          <t>-55,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-53,42%</t>
+          <t>-26,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,01%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,9%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 17,39</t>
+          <t>-20,23; 183,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 11,33</t>
+          <t>-81,73; -2,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,85; -28,12</t>
+          <t>-66,39; 55,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 3,27</t>
+          <t>-39,99; 130,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 1,93</t>
+          <t>-34,58; 148,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -22,45</t>
+          <t>-30,9; 175,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -3,11</t>
+          <t>-15,97; 106,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -6,25</t>
+          <t>-49,7; 39,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,26; -32,59</t>
+          <t>-37,67; 66,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-6,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,94</t>
+          <t>-7,11; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,24</t>
+          <t>-7,66; 1,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,86</t>
+          <t>-10,96; -3,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,29</t>
+          <t>-8,58; 0,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,76</t>
+          <t>-8,57; 0,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,91</t>
+          <t>-10,77; -2,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,17</t>
+          <t>-6,91; -0,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,33</t>
+          <t>-6,81; -0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,86</t>
+          <t>-9,75; -4,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,66%</t>
+          <t>-27,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>-53,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>-31,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-50,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 183,66</t>
+          <t>-45,06; 17,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,73; -2,9</t>
+          <t>-49,89; 11,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 55,6</t>
+          <t>-69,85; -28,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 130,04</t>
+          <t>-55,12; 3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 148,62</t>
+          <t>-54,67; 1,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 175,88</t>
+          <t>-68,17; -22,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 106,58</t>
+          <t>-45,78; -3,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 39,13</t>
+          <t>-46,66; -6,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 66,44</t>
+          <t>-63,26; -32,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,32</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,94</t>
+          <t>0,27; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,24</t>
+          <t>-2,23; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,86</t>
+          <t>-0,32; 5,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,29</t>
+          <t>-1,04; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,76</t>
+          <t>-1,12; 3,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,91</t>
+          <t>-0,46; 4,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,17</t>
+          <t>0,27; 3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,33</t>
+          <t>-1,17; 1,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,86</t>
+          <t>0,28; 3,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>159,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-55,66%</t>
+          <t>-50,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>125,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>75,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>136,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>123,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>131,48%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 183,66</t>
+          <t>-3,88; 681,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,73; -2,9</t>
+          <t>-100,0; 142,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 55,6</t>
+          <t>-29,63; 679,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 130,04</t>
+          <t>-61,2; 500,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 148,62</t>
+          <t>-54,94; 550,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 175,88</t>
+          <t>-43,25; 692,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 106,58</t>
+          <t>8,33; 392,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 39,13</t>
+          <t>-58,18; 155,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 66,44</t>
+          <t>6,12; 399,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-6,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 1,93</t>
+          <t>-9,87; 2,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,24</t>
+          <t>-13,32; -2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -3,29</t>
+          <t>-15,8; -4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 0,05</t>
+          <t>-8,74; 3,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,25</t>
+          <t>-7,32; 4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -2,61</t>
+          <t>-8,57; 3,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,39</t>
+          <t>-8,36; 0,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,79</t>
+          <t>-8,45; -0,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -4,03</t>
+          <t>-10,66; -2,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>-24,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,3%</t>
+          <t>-50,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-53,42%</t>
+          <t>-66,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>-26,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-48,01%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>-25,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-33,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,9%</t>
+          <t>-48,35%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 17,39</t>
+          <t>-54,42; 24,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 11,33</t>
+          <t>-71,84; -16,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,85; -28,12</t>
+          <t>-83,58; -36,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 3,27</t>
+          <t>-56,97; 40,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 1,93</t>
+          <t>-48,53; 51,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -22,45</t>
+          <t>-57,09; 43,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -3,11</t>
+          <t>-50,91; 7,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -6,25</t>
+          <t>-53,83; -1,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,26; -32,59</t>
+          <t>-65,86; -21,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-6,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,86</t>
+          <t>-6,64; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,19</t>
+          <t>-7,12; 3,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -0,13</t>
+          <t>-10,78; -1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,76</t>
+          <t>-9,73; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,29</t>
+          <t>-10,47; 0,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,17</t>
+          <t>-11,84; -2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,66</t>
+          <t>-6,61; 1,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,23</t>
+          <t>-6,89; 0,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,16</t>
+          <t>-10,07; -3,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-33,93%</t>
+          <t>-15,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-33,14%</t>
+          <t>-49,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>-28,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>-52,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,13%</t>
+          <t>-19,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-23,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-51,16%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 32,18</t>
+          <t>-43,97; 51,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,09; -2,18</t>
+          <t>-49,17; 37,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -1,53</t>
+          <t>-70,29; -14,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 13,39</t>
+          <t>-57,36; 12,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 21,72</t>
+          <t>-60,68; 7,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 19,61</t>
+          <t>-73,19; -20,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 10,09</t>
+          <t>-43,94; 12,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -3,14</t>
+          <t>-46,93; 7,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -1,41</t>
+          <t>-66,42; -29,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 1,91</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; -0,32</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; -0,38</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 0,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 1,35</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 1,26</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 0,5</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; -0,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; -0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-33,93%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-33,14%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-22,12%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-12,54%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,99%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,13%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-23,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-24,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-30,06; 32,45</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-53,67; -4,31</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-53,54; -5,93</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-45,39; 9,07</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-36,35; 24,29</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-39,76; 21,45</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,47; 7,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-40,41; -3,56</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-43,43; -1,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP2002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,25</t>
+          <t>0,23; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,66</t>
+          <t>-2,51; 0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,65</t>
+          <t>-0,55; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,38</t>
+          <t>-1,09; 3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,22</t>
+          <t>-1,07; 3,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,58</t>
+          <t>-0,14; 4,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,59</t>
+          <t>0,33; 3,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,36</t>
+          <t>-1,36; 1,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,93</t>
+          <t>0,21; 4,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 681,92</t>
+          <t>0,15; 745,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 142,88</t>
+          <t>-100,0; 130,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 679,12</t>
+          <t>-32,76; 644,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 500,43</t>
+          <t>-59,17; 674,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 550,16</t>
+          <t>-60,13; 649,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 692,42</t>
+          <t>-26,18; 1014,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 392,9</t>
+          <t>8,54; 419,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,18; 155,45</t>
+          <t>-65,58; 182,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 399,34</t>
+          <t>2,02; 473,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 2,6</t>
+          <t>-9,63; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -2,17</t>
+          <t>-13,25; -1,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -4,77</t>
+          <t>-15,48; -4,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 3,25</t>
+          <t>-9,38; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 4,26</t>
+          <t>-6,83; 4,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 3,49</t>
+          <t>-8,58; 3,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 0,65</t>
+          <t>-7,63; 0,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -0,14</t>
+          <t>-8,66; -0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,53</t>
+          <t>-10,53; -2,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 24,62</t>
+          <t>-54,28; 25,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,84; -16,07</t>
+          <t>-70,64; -14,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,58; -36,05</t>
+          <t>-83,61; -37,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 40,48</t>
+          <t>-59,63; 29,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 51,23</t>
+          <t>-45,14; 58,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 43,4</t>
+          <t>-57,15; 38,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 7,73</t>
+          <t>-48,22; 8,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,83; -1,64</t>
+          <t>-55,19; -4,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,86; -21,94</t>
+          <t>-65,99; -20,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,59</t>
+          <t>-6,5; 4,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,43</t>
+          <t>-7,01; 3,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -1,89</t>
+          <t>-10,88; -1,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,36</t>
+          <t>-9,67; 1,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 0,47</t>
+          <t>-9,78; 0,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -2,64</t>
+          <t>-12,54; -2,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,4</t>
+          <t>-6,21; 1,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,75</t>
+          <t>-7,04; 0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -3,41</t>
+          <t>-10,09; -3,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 51,66</t>
+          <t>-44,37; 42,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 37,73</t>
+          <t>-49,34; 39,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,29; -14,44</t>
+          <t>-72,3; -17,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 12,29</t>
+          <t>-57,14; 13,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 7,47</t>
+          <t>-58,43; 9,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -20,82</t>
+          <t>-72,15; -21,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 12,18</t>
+          <t>-42,12; 9,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 7,13</t>
+          <t>-46,62; 7,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -29,62</t>
+          <t>-65,88; -31,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,91</t>
+          <t>-2,58; 1,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,32</t>
+          <t>-4,44; -0,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,38</t>
+          <t>-4,7; -0,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,52</t>
+          <t>-3,58; 0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,35</t>
+          <t>-3,16; 1,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,26</t>
+          <t>-3,4; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,5</t>
+          <t>-2,46; 0,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,31</t>
+          <t>-3,2; -0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,09</t>
+          <t>-3,36; -0,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 32,45</t>
+          <t>-31,45; 30,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,67; -4,31</t>
+          <t>-52,68; -5,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -5,93</t>
+          <t>-55,91; -5,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 9,07</t>
+          <t>-43,2; 12,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 24,29</t>
+          <t>-38,17; 23,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 21,45</t>
+          <t>-40,81; 20,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 7,65</t>
+          <t>-31,79; 12,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,41; -3,56</t>
+          <t>-40,54; -3,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,43; -1,38</t>
+          <t>-42,3; -3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,59</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,81</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,48</t>
+          <t>-0,94; 3,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,64</t>
+          <t>-0,99; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,24</t>
+          <t>-0,26; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,42</t>
+          <t>0,25; 5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,07</t>
+          <t>-2,63; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,71</t>
+          <t>-0,28; 5,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,77</t>
+          <t>0,2; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,37</t>
+          <t>-1,27; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,3</t>
+          <t>0,3; 4,35</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>75,49%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>135,68%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>159,52%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-50,04%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>125,87%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>75,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>59,21%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>136,93%</t>
+          <t>134,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>131,48%</t>
+          <t>135,75%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 745,85</t>
+          <t>-49,62; 583,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,62</t>
+          <t>-59,91; 550,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 644,12</t>
+          <t>-42,2; 738,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 674,33</t>
+          <t>-2,7; 682,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 649,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 1014,67</t>
+          <t>-31,57; 855,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 419,03</t>
+          <t>3,76; 372,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 182,11</t>
+          <t>-61,54; 136,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 473,26</t>
+          <t>1,79; 433,4</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,5</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-7,33</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,69</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,43</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-6,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 2,65</t>
+          <t>-9,3; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -1,72</t>
+          <t>-7,79; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -4,47</t>
+          <t>-8,41; 2,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 2,12</t>
+          <t>-9,87; 3,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 4,8</t>
+          <t>-12,96; -1,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 3,05</t>
+          <t>-15,3; -4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,62</t>
+          <t>-8,21; 0,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,65</t>
+          <t>-8,48; -0,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -2,39</t>
+          <t>-10,43; -2,25</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-26,62%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-22,33%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-24,2%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-50,62%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-66,93%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-12,02%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,55%</t>
+          <t>-65,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,35%</t>
+          <t>-48,09%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,28; 25,16</t>
+          <t>-59,49; 28,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,64; -14,0</t>
+          <t>-50,09; 42,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,61; -37,92</t>
+          <t>-57,26; 34,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 29,5</t>
+          <t>-54,65; 32,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 58,85</t>
+          <t>-72,56; -11,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 38,22</t>
+          <t>-82,7; -29,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 8,08</t>
+          <t>-51,33; 6,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -4,82</t>
+          <t>-54,86; -2,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,99; -20,46</t>
+          <t>-66,1; -19,38</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-7,58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,18</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,89</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,13</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,43</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-6,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,12</t>
+          <t>-9,03; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,74</t>
+          <t>-9,37; 1,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -1,97</t>
+          <t>-12,65; -2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 1,25</t>
+          <t>-5,95; 4,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 0,73</t>
+          <t>-7,06; 3,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -2,94</t>
+          <t>-10,55; -1,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,08</t>
+          <t>-5,99; 1,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,8</t>
+          <t>-6,68; 0,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,53</t>
+          <t>-10,18; -3,2</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-28,27%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-31,77%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-54,35%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-9,55%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-15,33%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-49,77%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-28,27%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-31,77%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-52,39%</t>
+          <t>-48,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,16%</t>
+          <t>-51,52%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 42,45</t>
+          <t>-54,25; 19,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 39,54</t>
+          <t>-57,59; 12,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,3; -17,81</t>
+          <t>-74,66; -21,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 13,1</t>
+          <t>-41,56; 45,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,43; 9,33</t>
+          <t>-48,31; 39,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,15; -21,51</t>
+          <t>-70,4; -13,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 9,25</t>
+          <t>-40,72; 12,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 7,74</t>
+          <t>-46,2; 5,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,88; -31,63</t>
+          <t>-67,7; -28,54</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,35</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-2,47</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,84</t>
+          <t>-3,76; 0,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,35</t>
+          <t>-3,15; 1,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,39</t>
+          <t>-3,5; 1,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,6</t>
+          <t>-2,62; 1,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,35</t>
+          <t>-4,54; -0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,24</t>
+          <t>-4,33; 0,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,73</t>
+          <t>-2,57; 0,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,24</t>
+          <t>-3,23; -0,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -0,25</t>
+          <t>-3,35; -0,11</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-22,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-12,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-16,64%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-4,85%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-33,93%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-33,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-22,12%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-12,54%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-24,38%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 30,14</t>
+          <t>-45,78; 13,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -5,18</t>
+          <t>-39,31; 21,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -5,02</t>
+          <t>-43,44; 17,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 12,3</t>
+          <t>-31,7; 32,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 23,81</t>
+          <t>-54,09; -2,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 20,8</t>
+          <t>-52,38; 3,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 12,26</t>
+          <t>-31,82; 10,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,54; -3,21</t>
+          <t>-40,37; -3,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,3; -3,69</t>
+          <t>-41,14; -1,49</t>
         </is>
       </c>
     </row>
